--- a/OreDB/DBSheets/ORETypes.xlsx
+++ b/OreDB/DBSheets/ORETypes.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD19F11-BFCD-4760-A313-FDCBFAD4FB6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="TypesCalendar" sheetId="1" r:id="rId1"/>
@@ -17,16 +16,16 @@
     <definedName name="DBFsourcedbb3fe5877b34be493a089bef82e9a75" hidden="1">TypesIndexName!$A$1</definedName>
     <definedName name="DBFsourcee36c7c0afa7c445d905f2ae4b6936558" hidden="1">TypesParties!$A$1</definedName>
     <definedName name="DBFtarget145eaf3075f64f73a4ee286d8fa915d4" hidden="1">TypesCalendar!$B$1:$B$115</definedName>
-    <definedName name="DBFtargetdbb3fe5877b34be493a089bef82e9a75" hidden="1">TypesIndexName!$B$1:$B$1147</definedName>
-    <definedName name="DBFtargete36c7c0afa7c445d905f2ae4b6936558" hidden="1">TypesParties!$B$1:$B$6</definedName>
+    <definedName name="DBFtargetdbb3fe5877b34be493a089bef82e9a75" hidden="1">TypesIndexName!$B$1:$B$1150</definedName>
+    <definedName name="DBFtargete36c7c0afa7c445d905f2ae4b6936558" hidden="1">TypesParties!$B$1:$B$30</definedName>
     <definedName name="DBMapperTypesCalendar">TypesCalendar!$B$1:$B$115</definedName>
-    <definedName name="DBMapperTypesIndexName">TypesIndexName!$B$1:$B$1147</definedName>
-    <definedName name="DBMapperTypesParties">TypesParties!$B$1:$B$6</definedName>
+    <definedName name="DBMapperTypesIndexName">TypesIndexName!$B$1:$B$1150</definedName>
+    <definedName name="DBMapperTypesParties">TypesParties!$B$1:$B$30</definedName>
     <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">TypesCalendar!$B$1:$B$115</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="1" hidden="1">TypesIndexName!$B$1:$B$1147</definedName>
-    <definedName name="ExterneDaten_1" localSheetId="2" hidden="1">TypesParties!$B$1:$B$6</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="1" hidden="1">TypesIndexName!$B$1:$B$1150</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="2" hidden="1">TypesParties!$B$1:$B$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,21 +40,21 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Verbindung" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=SQLOLEDB.1;Persist Security Info=True;Extended Properties=&quot;driver=SQL SERVER;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32767;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False" command="SELECT T1.value_x000d__x000a_FROM ORE.dbo.TypesCalendar T1_x000d__x000a_"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Verbindung" type="5" refreshedVersion="6" saveData="1">
+    <dbPr connection="Provider=MSDASQL.1;Persist Security Info=True;Extended Properties=&quot;DRIVER=SQL SERVER;SERVER=OEBFADBTVI00;UID=;Trusted_Connection=Yes;APP=Microsoft Office 2010;WSID=00232441EA71;DATABASE=pubs&quot;" command="SELECT T1.value_x000d__x000a_FROM ORE.dbo.TypesCalendar T1_x000d__x000a_"/>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Verbindung1" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=SQLOLEDB.1;Persist Security Info=True;Extended Properties=&quot;driver=SQL SERVER;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32767;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False" command="SELECT T1.value_x000d__x000a_FROM ORE.dbo.TypesIndexName T1_x000d__x000a_"/>
+  <connection id="2" keepAlive="1" name="Verbindung1" type="5" refreshedVersion="4" background="1" saveData="1">
+    <dbPr connection="Provider=MSDASQL.1;Persist Security Info=True;Extended Properties=&quot;DRIVER=SQL SERVER;SERVER=OEBFADBTVI00;UID=;Trusted_Connection=Yes;APP=Microsoft Office 2010;WSID=00232441EA71;DATABASE=pubs&quot;" command="SELECT T1.value_x000d__x000a_FROM ORE.dbo.TypesIndexName T1_x000d__x000a_"/>
   </connection>
-  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Verbindung2" type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=SQLOLEDB.1;Persist Security Info=True;Extended Properties=&quot;driver=SQL SERVER;Server=Lenovo-PC;Trusted_Connection=Yes;Database=pubs&quot;;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=32767;Workstation ID=LENOVO-PC;Use Encryption for Data=False;Tag with column collation when possible=False" command="SELECT T1.value_x000d__x000a_FROM ORE.dbo.TypesParties T1_x000d__x000a_"/>
+  <connection id="3" keepAlive="1" name="Verbindung2" type="5" refreshedVersion="4" background="1" saveData="1">
+    <dbPr connection="Provider=MSDASQL.1;Persist Security Info=True;Extended Properties=&quot;DRIVER=SQL SERVER;SERVER=OEBFADBTVI00;UID=;Trusted_Connection=Yes;APP=Microsoft Office 2010;WSID=00232441EA71;DATABASE=pubs&quot;" command="SELECT T1.value_x000d__x000a_FROM ORE.dbo.TypesParties T1_x000d__x000a_"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1296">
   <si>
     <t xml:space="preserve">SELECT T1.value_x000D_
 FROM ORE.dbo.TypesCalendar T1_x000D_
@@ -3855,25 +3854,106 @@
 </t>
   </si>
   <si>
-    <t>BANK</t>
-  </si>
-  <si>
-    <t>BOND_YIELD_EUR_OVER_OIS</t>
-  </si>
-  <si>
-    <t>CPTY_A</t>
-  </si>
-  <si>
-    <t>CPTY_B</t>
-  </si>
-  <si>
-    <t>CPTY_C</t>
+    <t>EUR-CMS-12M</t>
+  </si>
+  <si>
+    <t>EUR-CMS-3M</t>
+  </si>
+  <si>
+    <t>EUR-CMS-6M</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>637</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3903,14 +3983,152 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3924,7 +4142,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExterneDaten_1" backgroundRefresh="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="1">
       <queryTableField id="2" name="value" tableColumnId="3"/>
@@ -3934,7 +4152,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExterneDaten_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="1">
       <queryTableField id="2" name="value" tableColumnId="3"/>
@@ -3944,7 +4162,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExterneDaten_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="1">
       <queryTableField id="2" name="value" tableColumnId="3"/>
@@ -3954,36 +4172,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle_ExterneDaten_1" displayName="Tabelle_ExterneDaten_1" ref="B1:B115" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle_ExterneDaten_1" displayName="Tabelle_ExterneDaten_1" ref="B1:B115" tableType="queryTable" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="1">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="value" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="value" queryTableFieldId="2" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle_ExterneDaten_13" displayName="Tabelle_ExterneDaten_13" ref="B1:B1147" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle_ExterneDaten_13" displayName="Tabelle_ExterneDaten_13" ref="B1:B1150" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="1">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="value" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="value" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle_ExterneDaten_14" displayName="Tabelle_ExterneDaten_14" ref="B1:B6" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle_ExterneDaten_14" displayName="Tabelle_ExterneDaten_14" ref="B1:B30" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <tableColumns count="1">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="value" queryTableFieldId="2"/>
+    <tableColumn id="3" uniqueName="3" name="value" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4021,9 +4239,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4056,26 +4274,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4108,26 +4309,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4300,7 +4484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4318,11 +4502,11 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBSetQuery(A2,"",B1)</f>
-        <v xml:space="preserve">Env:MSSQL, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.value_x000D_
+        <v xml:space="preserve">Env:Dev, (last result:)Error in query table refresh: [Microsoft][ODBC SQL Server Driver][SQL Server]Invalid object name 'ORE.dbo.TypesCalendar'. in query: SELECT T1.value_x000D_
 FROM ORE.dbo.TypesCalendar T1_x000D_
 </v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4330,572 +4514,572 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4908,8 +5092,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4926,11 +5110,11 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBSetQuery(A2,"",B1)</f>
-        <v xml:space="preserve">Env:MSSQL, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.value_x000D_
+        <v xml:space="preserve">Env:Dev, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.value_x000D_
 FROM ORE.dbo.TypesIndexName T1_x000D_
 </v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4938,5732 +5122,5747 @@
       <c r="A2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+      <c r="B191" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
+      <c r="B195" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
+      <c r="B216" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
+      <c r="B218" s="2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
+      <c r="B220" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
+      <c r="B221" s="2" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
+      <c r="B222" s="2" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
+      <c r="B223" s="2" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
+      <c r="B224" s="2" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
+      <c r="B225" s="2" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
+      <c r="B227" s="2" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
+      <c r="B228" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" t="s">
+      <c r="B229" s="2" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" t="s">
+      <c r="B230" s="2" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
+      <c r="B233" s="2" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
+      <c r="B234" s="2" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" t="s">
+      <c r="B235" s="2" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" t="s">
+      <c r="B236" s="2" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
+      <c r="B237" s="2" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" t="s">
+      <c r="B238" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" t="s">
+      <c r="B239" s="2" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
+      <c r="B240" s="2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
+      <c r="B241" s="2" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" t="s">
+      <c r="B242" s="2" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" t="s">
+      <c r="B243" s="2" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" t="s">
+      <c r="B244" s="2" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" t="s">
+      <c r="B245" s="2" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" t="s">
+      <c r="B246" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
+      <c r="B247" s="2" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" t="s">
+      <c r="B248" s="2" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" t="s">
+      <c r="B249" s="2" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" t="s">
+      <c r="B250" s="2" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" t="s">
+      <c r="B251" s="2" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" t="s">
+      <c r="B252" s="2" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
+      <c r="B253" s="2" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" t="s">
+      <c r="B254" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" t="s">
+      <c r="B255" s="2" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
+      <c r="B256" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" t="s">
+      <c r="B257" s="2" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" t="s">
+      <c r="B258" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
+      <c r="B259" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" t="s">
+      <c r="B260" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" t="s">
+      <c r="B261" s="2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" t="s">
+      <c r="B262" s="2" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" t="s">
+      <c r="B263" s="2" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" t="s">
+      <c r="B264" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
+      <c r="B265" s="2" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
+      <c r="B266" s="2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" t="s">
+      <c r="B267" s="2" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" t="s">
+      <c r="B268" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" t="s">
+      <c r="B269" s="2" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" t="s">
+      <c r="B270" s="2" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
+      <c r="B271" s="2" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" t="s">
+      <c r="B272" s="2" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" t="s">
+      <c r="B273" s="2" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
+      <c r="B274" s="2" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" t="s">
+      <c r="B275" s="2" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" t="s">
+      <c r="B276" s="2" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" t="s">
+      <c r="B277" s="2" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" t="s">
+      <c r="B278" s="2" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" t="s">
+      <c r="B279" s="2" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" t="s">
+      <c r="B280" s="2" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" t="s">
+      <c r="B281" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" t="s">
+      <c r="B282" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" t="s">
+      <c r="B283" s="2" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" t="s">
+      <c r="B284" s="2" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" t="s">
+      <c r="B285" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" t="s">
+      <c r="B286" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" t="s">
+      <c r="B287" s="2" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" t="s">
+      <c r="B288" s="2" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" t="s">
+      <c r="B289" s="2" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" t="s">
+      <c r="B290" s="2" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" t="s">
+      <c r="B291" s="2" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" t="s">
+      <c r="B292" s="2" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" t="s">
+      <c r="B293" s="2" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" t="s">
+      <c r="B294" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" t="s">
+      <c r="B295" s="2" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" t="s">
+      <c r="B296" s="2" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B297" t="s">
+      <c r="B297" s="2" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" t="s">
+      <c r="B298" s="2" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
+      <c r="B299" s="2" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" t="s">
+      <c r="B300" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" t="s">
+      <c r="B301" s="2" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" t="s">
+      <c r="B302" s="2" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" t="s">
+      <c r="B303" s="2" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
+      <c r="B304" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" t="s">
+      <c r="B305" s="2" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B306" t="s">
+      <c r="B306" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B307" t="s">
+      <c r="B307" s="2" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" t="s">
+      <c r="B308" s="2" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B309" t="s">
+      <c r="B309" s="2" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" t="s">
+      <c r="B310" s="2" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" t="s">
+      <c r="B311" s="2" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" t="s">
+      <c r="B312" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" t="s">
+      <c r="B313" s="2" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" t="s">
+      <c r="B314" s="2" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" t="s">
+      <c r="B315" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" t="s">
+      <c r="B316" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" t="s">
+      <c r="B317" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B318" t="s">
+      <c r="B318" s="2" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B319" t="s">
+      <c r="B319" s="2" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B320" t="s">
+      <c r="B320" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B321" t="s">
+      <c r="B321" s="2" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B322" t="s">
+      <c r="B322" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B323" t="s">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B324" t="s">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B325" t="s">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B326" t="s">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" s="2" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B327" t="s">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" s="2" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B328" t="s">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" t="s">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B330" t="s">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B331" t="s">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" t="s">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B333" t="s">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B334" t="s">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B335" t="s">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B336" t="s">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B337" t="s">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B338" t="s">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B339" t="s">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B340" t="s">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B341" t="s">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B342" t="s">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B343" t="s">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" t="s">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" t="s">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" t="s">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" t="s">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" t="s">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" t="s">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" t="s">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B351" t="s">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" t="s">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" t="s">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" t="s">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B355" t="s">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" t="s">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" t="s">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B358" t="s">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" t="s">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B360" t="s">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B361" t="s">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B362" t="s">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B363" t="s">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B364" t="s">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" t="s">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" t="s">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B367" t="s">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" t="s">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" t="s">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" t="s">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B371" t="s">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B372" t="s">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" t="s">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="2" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" t="s">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="2" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B375" t="s">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" t="s">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="2" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B377" t="s">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B378" t="s">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B379" t="s">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" t="s">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B381" t="s">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B382" t="s">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B385" s="2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B383" t="s">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B386" s="2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B384" t="s">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B385" t="s">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B388" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B386" t="s">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B389" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B387" t="s">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B390" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B388" t="s">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B391" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B389" t="s">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B392" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B390" t="s">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B393" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B391" t="s">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B394" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B392" t="s">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B395" s="2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B393" t="s">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B396" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B394" t="s">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B397" s="2" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B395" t="s">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B398" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B396" t="s">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B399" s="2" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B397" t="s">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B400" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" t="s">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B401" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B399" t="s">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B402" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B400" t="s">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B403" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B401" t="s">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B404" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B402" t="s">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B405" s="2" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B403" t="s">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B406" s="2" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B404" t="s">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B407" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B405" t="s">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B408" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B406" t="s">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B409" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B407" t="s">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B410" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B408" t="s">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B411" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B409" t="s">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B412" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B410" t="s">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B413" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B411" t="s">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B414" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B412" t="s">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B415" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B413" t="s">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B416" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B414" t="s">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B417" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B415" t="s">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B418" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B416" t="s">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B419" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B417" t="s">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B420" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B418" t="s">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B421" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B419" t="s">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B422" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B420" t="s">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B423" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B421" t="s">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B424" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B422" t="s">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B425" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B423" t="s">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B426" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B424" t="s">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B427" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B425" t="s">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B428" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B426" t="s">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B429" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B427" t="s">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B430" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B428" t="s">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B431" s="2" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B429" t="s">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B432" s="2" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B430" t="s">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B433" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B431" t="s">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B434" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B432" t="s">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B435" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B433" t="s">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B436" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B434" t="s">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B437" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B435" t="s">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B438" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B436" t="s">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B439" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B437" t="s">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B440" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B438" t="s">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B441" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B439" t="s">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B442" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B440" t="s">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B443" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B441" t="s">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B444" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B442" t="s">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B445" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B443" t="s">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B446" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B444" t="s">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B447" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B445" t="s">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B448" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B446" t="s">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B449" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B447" t="s">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B450" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B448" t="s">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B451" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B449" t="s">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B452" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B450" t="s">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B453" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B451" t="s">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B454" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B452" t="s">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B455" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B453" t="s">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B456" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B454" t="s">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B457" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B455" t="s">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B458" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B456" t="s">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B459" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B457" t="s">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B460" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B458" t="s">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B461" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B459" t="s">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B462" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B460" t="s">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B463" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B461" t="s">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B464" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B462" t="s">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B465" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B463" t="s">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B466" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B464" t="s">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B467" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B465" t="s">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B468" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B466" t="s">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B469" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B467" t="s">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B470" s="2" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B468" t="s">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B471" s="2" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B469" t="s">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B472" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B470" t="s">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B473" s="2" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B471" t="s">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B474" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B472" t="s">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B475" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B473" t="s">
+    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B476" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B474" t="s">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B477" s="2" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B475" t="s">
+    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B478" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B476" t="s">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B479" s="2" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B477" t="s">
+    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B480" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B478" t="s">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B481" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B479" t="s">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B482" s="2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B480" t="s">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B483" s="2" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B481" t="s">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B484" s="2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B482" t="s">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B485" s="2" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B483" t="s">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B486" s="2" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B484" t="s">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B487" s="2" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B485" t="s">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B488" s="2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B486" t="s">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B489" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B487" t="s">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B490" s="2" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B488" t="s">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B491" s="2" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B489" t="s">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B492" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B490" t="s">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B493" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B491" t="s">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B494" s="2" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B492" t="s">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B495" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B493" t="s">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B496" s="2" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B494" t="s">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B497" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B495" t="s">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B498" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B496" t="s">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B499" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B497" t="s">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B500" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B498" t="s">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B501" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B499" t="s">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B502" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B500" t="s">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B503" s="2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B501" t="s">
+    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B504" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B502" t="s">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B505" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B503" t="s">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B506" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B504" t="s">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B507" s="2" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B505" t="s">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B508" s="2" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B506" t="s">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B509" s="2" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B507" t="s">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B510" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B508" t="s">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B511" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B509" t="s">
+    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B512" s="2" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B510" t="s">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B513" s="2" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B511" t="s">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B514" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B512" t="s">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B515" s="2" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B513" t="s">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B516" s="2" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B514" t="s">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B517" s="2" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B515" t="s">
+    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B518" s="2" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B516" t="s">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B519" s="2" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B517" t="s">
+    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B520" s="2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B518" t="s">
+    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B521" s="2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B519" t="s">
+    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B522" s="2" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B520" t="s">
+    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B523" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B521" t="s">
+    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B524" s="2" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B522" t="s">
+    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B525" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B523" t="s">
+    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B526" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B524" t="s">
+    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B527" s="2" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B525" t="s">
+    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B528" s="2" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B526" t="s">
+    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B529" s="2" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B527" t="s">
+    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B530" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B528" t="s">
+    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B531" s="2" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B529" t="s">
+    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B532" s="2" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B530" t="s">
+    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B533" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B531" t="s">
+    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B534" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B532" t="s">
+    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B535" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B533" t="s">
+    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B536" s="2" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B534" t="s">
+    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B537" s="2" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B535" t="s">
+    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B538" s="2" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B536" t="s">
+    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B539" s="2" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B537" t="s">
+    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B540" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B538" t="s">
+    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B541" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B539" t="s">
+    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B542" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B540" t="s">
+    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B543" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B541" t="s">
+    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B544" s="2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B542" t="s">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B545" s="2" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B543" t="s">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B546" s="2" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B544" t="s">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B547" s="2" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B545" t="s">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B548" s="2" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B546" t="s">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B549" s="2" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B547" t="s">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B550" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B548" t="s">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B551" s="2" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B549" t="s">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B552" s="2" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B550" t="s">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B553" s="2" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B551" t="s">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B554" s="2" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B552" t="s">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B555" s="2" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B553" t="s">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B556" s="2" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B554" t="s">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B557" s="2" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B555" t="s">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B558" s="2" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B556" t="s">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B559" s="2" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B557" t="s">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B560" s="2" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B558" t="s">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B561" s="2" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B559" t="s">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B562" s="2" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B560" t="s">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B563" s="2" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B561" t="s">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B564" s="2" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B562" t="s">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B565" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B563" t="s">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B566" s="2" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B564" t="s">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B567" s="2" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B565" t="s">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B568" s="2" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B566" t="s">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B569" s="2" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B567" t="s">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B570" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B568" t="s">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B571" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B569" t="s">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B572" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B570" t="s">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B573" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B571" t="s">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B574" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B572" t="s">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B575" s="2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B573" t="s">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B576" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B574" t="s">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B577" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B575" t="s">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B578" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B576" t="s">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B579" s="2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B577" t="s">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B580" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B578" t="s">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B581" s="2" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B579" t="s">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B582" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B580" t="s">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B583" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B581" t="s">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B584" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B582" t="s">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B585" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B583" t="s">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B586" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B584" t="s">
+    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B587" s="2" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B585" t="s">
+    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B588" s="2" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B586" t="s">
+    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B589" s="2" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B587" t="s">
+    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B590" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B588" t="s">
+    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B591" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B589" t="s">
+    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B592" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B590" t="s">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B593" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B591" t="s">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B594" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B592" t="s">
+    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B595" s="2" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B593" t="s">
+    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B596" s="2" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B594" t="s">
+    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B597" s="2" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B595" t="s">
+    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B598" s="2" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B596" t="s">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B599" s="2" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B597" t="s">
+    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B600" s="2" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B598" t="s">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B601" s="2" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B599" t="s">
+    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B602" s="2" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B600" t="s">
+    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B603" s="2" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B601" t="s">
+    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B604" s="2" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B602" t="s">
+    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B605" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B603" t="s">
+    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B606" s="2" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B604" t="s">
+    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B607" s="2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B605" t="s">
+    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B608" s="2" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B606" t="s">
+    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B609" s="2" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B607" t="s">
+    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B610" s="2" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B608" t="s">
+    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B611" s="2" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B609" t="s">
+    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B612" s="2" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B610" t="s">
+    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B613" s="2" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B611" t="s">
+    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B614" s="2" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B612" t="s">
+    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B615" s="2" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B613" t="s">
+    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B616" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B614" t="s">
+    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B617" s="2" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B615" t="s">
+    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B618" s="2" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B616" t="s">
+    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B619" s="2" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B617" t="s">
+    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B620" s="2" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B618" t="s">
+    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B621" s="2" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B619" t="s">
+    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B622" s="2" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B620" t="s">
+    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B623" s="2" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B621" t="s">
+    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B624" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B622" t="s">
+    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B625" s="2" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B623" t="s">
+    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B626" s="2" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B624" t="s">
+    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B627" s="2" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B625" t="s">
+    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B628" s="2" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B626" t="s">
+    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B629" s="2" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B627" t="s">
+    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B630" s="2" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B628" t="s">
+    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B631" s="2" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B629" t="s">
+    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B632" s="2" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B630" t="s">
+    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B633" s="2" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B631" t="s">
+    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B634" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B632" t="s">
+    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B635" s="2" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B633" t="s">
+    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B636" s="2" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B634" t="s">
+    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B637" s="2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B635" t="s">
+    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B638" s="2" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B636" t="s">
+    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B639" s="2" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B637" t="s">
+    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B640" s="2" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B638" t="s">
+    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B641" s="2" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B639" t="s">
+    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B642" s="2" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B640" t="s">
+    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B643" s="2" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B641" t="s">
+    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B644" s="2" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B642" t="s">
+    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B645" s="2" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B643" t="s">
+    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B646" s="2" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B644" t="s">
+    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B647" s="2" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B645" t="s">
+    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B648" s="2" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B646" t="s">
+    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B649" s="2" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B647" t="s">
+    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B650" s="2" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B648" t="s">
+    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B651" s="2" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B649" t="s">
+    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B652" s="2" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B650" t="s">
+    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B653" s="2" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B651" t="s">
+    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B654" s="2" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B652" t="s">
+    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B655" s="2" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B653" t="s">
+    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B656" s="2" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B654" t="s">
+    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B657" s="2" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B655" t="s">
+    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B658" s="2" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B656" t="s">
+    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B659" s="2" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B657" t="s">
+    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B660" s="2" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B658" t="s">
+    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B661" s="2" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B659" t="s">
+    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B662" s="2" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B660" t="s">
+    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B663" s="2" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B661" t="s">
+    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B664" s="2" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B662" t="s">
+    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B665" s="2" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B663" t="s">
+    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B666" s="2" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B664" t="s">
+    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B667" s="2" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B665" t="s">
+    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B668" s="2" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B666" t="s">
+    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B669" s="2" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B667" t="s">
+    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B670" s="2" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B668" t="s">
+    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B671" s="2" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B669" t="s">
+    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B672" s="2" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B670" t="s">
+    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B673" s="2" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B671" t="s">
+    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B674" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B672" t="s">
+    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B675" s="2" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B673" t="s">
+    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B676" s="2" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B674" t="s">
+    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B677" s="2" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B675" t="s">
+    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B678" s="2" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B676" t="s">
+    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B679" s="2" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B677" t="s">
+    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B680" s="2" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B678" t="s">
+    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B681" s="2" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B679" t="s">
+    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B682" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B680" t="s">
+    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B683" s="2" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B681" t="s">
+    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B684" s="2" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B682" t="s">
+    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B685" s="2" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B683" t="s">
+    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B686" s="2" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B684" t="s">
+    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B687" s="2" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B685" t="s">
+    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B688" s="2" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B686" t="s">
+    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B689" s="2" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B687" t="s">
+    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B690" s="2" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B688" t="s">
+    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B691" s="2" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B689" t="s">
+    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B692" s="2" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B690" t="s">
+    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B693" s="2" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B691" t="s">
+    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B694" s="2" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B692" t="s">
+    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B695" s="2" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B693" t="s">
+    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B696" s="2" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B694" t="s">
+    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B697" s="2" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B695" t="s">
+    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B698" s="2" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B696" t="s">
+    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B699" s="2" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B697" t="s">
+    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B700" s="2" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B698" t="s">
+    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B701" s="2" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B699" t="s">
+    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B702" s="2" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B700" t="s">
+    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B703" s="2" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B701" t="s">
+    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B704" s="2" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B702" t="s">
+    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B705" s="2" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B703" t="s">
+    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B706" s="2" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B704" t="s">
+    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B707" s="2" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B705" t="s">
+    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B708" s="2" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B706" t="s">
+    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B709" s="2" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B707" t="s">
+    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B710" s="2" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B708" t="s">
+    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B711" s="2" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B709" t="s">
+    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B712" s="2" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B710" t="s">
+    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B713" s="2" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B711" t="s">
+    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B714" s="2" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B712" t="s">
+    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B715" s="2" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B713" t="s">
+    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B716" s="2" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B714" t="s">
+    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B717" s="2" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B715" t="s">
+    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B718" s="2" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B716" t="s">
+    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B719" s="2" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B717" t="s">
+    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B720" s="2" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B718" t="s">
+    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B721" s="2" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B719" t="s">
+    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B722" s="2" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B720" t="s">
+    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B723" s="2" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B721" t="s">
+    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B724" s="2" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B722" t="s">
+    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B725" s="2" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B723" t="s">
+    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B726" s="2" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B724" t="s">
+    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B727" s="2" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B725" t="s">
+    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B728" s="2" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B726" t="s">
+    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B729" s="2" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B727" t="s">
+    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B730" s="2" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B728" t="s">
+    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B731" s="2" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B729" t="s">
+    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B732" s="2" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B730" t="s">
+    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B733" s="2" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B731" t="s">
+    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B734" s="2" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B732" t="s">
+    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B735" s="2" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B733" t="s">
+    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B736" s="2" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B734" t="s">
+    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B737" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B735" t="s">
+    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B738" s="2" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B736" t="s">
+    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B739" s="2" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B737" t="s">
+    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B740" s="2" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B738" t="s">
+    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B741" s="2" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B739" t="s">
+    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B742" s="2" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B740" t="s">
+    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B743" s="2" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B741" t="s">
+    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B744" s="2" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B742" t="s">
+    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B745" s="2" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B743" t="s">
+    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B746" s="2" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B744" t="s">
+    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B747" s="2" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B745" t="s">
+    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B748" s="2" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B746" t="s">
+    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B749" s="2" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B747" t="s">
+    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B750" s="2" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B748" t="s">
+    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B751" s="2" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B749" t="s">
+    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B752" s="2" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B750" t="s">
+    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B753" s="2" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B751" t="s">
+    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B754" s="2" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B752" t="s">
+    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B755" s="2" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B753" t="s">
+    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B756" s="2" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B754" t="s">
+    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B757" s="2" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B755" t="s">
+    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B758" s="2" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B756" t="s">
+    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B759" s="2" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B757" t="s">
+    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B760" s="2" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B758" t="s">
+    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B761" s="2" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B759" t="s">
+    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B762" s="2" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B760" t="s">
+    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B763" s="2" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B761" t="s">
+    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B764" s="2" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B762" t="s">
+    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B765" s="2" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B763" t="s">
+    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B766" s="2" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B764" t="s">
+    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B767" s="2" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B765" t="s">
+    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B768" s="2" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B766" t="s">
+    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B769" s="2" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B767" t="s">
+    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B770" s="2" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B768" t="s">
+    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B771" s="2" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B769" t="s">
+    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B772" s="2" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B770" t="s">
+    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B773" s="2" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B771" t="s">
+    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B774" s="2" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B772" t="s">
+    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B775" s="2" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B773" t="s">
+    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B776" s="2" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B774" t="s">
+    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B777" s="2" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B775" t="s">
+    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B778" s="2" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B776" t="s">
+    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B779" s="2" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B777" t="s">
+    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B780" s="2" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B778" t="s">
+    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B781" s="2" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B779" t="s">
+    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B782" s="2" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B780" t="s">
+    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B783" s="2" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B781" t="s">
+    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B784" s="2" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B782" t="s">
+    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B785" s="2" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B783" t="s">
+    <row r="786" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B786" s="2" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B784" t="s">
+    <row r="787" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B787" s="2" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B785" t="s">
+    <row r="788" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B788" s="2" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="786" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B786" t="s">
+    <row r="789" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B789" s="2" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="787" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B787" t="s">
+    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B790" s="2" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="788" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B788" t="s">
+    <row r="791" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B791" s="2" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="789" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B789" t="s">
+    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B792" s="2" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B790" t="s">
+    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B793" s="2" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="791" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B791" t="s">
+    <row r="794" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B794" s="2" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B792" t="s">
+    <row r="795" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B795" s="2" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B793" t="s">
+    <row r="796" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B796" s="2" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="794" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B794" t="s">
+    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B797" s="2" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="795" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B795" t="s">
+    <row r="798" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B798" s="2" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="796" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B796" t="s">
+    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B799" s="2" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B797" t="s">
+    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B800" s="2" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="798" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B798" t="s">
+    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B801" s="2" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B799" t="s">
+    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B802" s="2" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B800" t="s">
+    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B803" s="2" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B801" t="s">
+    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B804" s="2" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B802" t="s">
+    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B805" s="2" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B803" t="s">
+    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B806" s="2" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B804" t="s">
+    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B807" s="2" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B805" t="s">
+    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B808" s="2" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B806" t="s">
+    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B809" s="2" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B807" t="s">
+    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B810" s="2" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B808" t="s">
+    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B811" s="2" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B809" t="s">
+    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B812" s="2" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B810" t="s">
+    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B813" s="2" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B811" t="s">
+    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B814" s="2" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B812" t="s">
+    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B815" s="2" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B813" t="s">
+    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B816" s="2" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B814" t="s">
+    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B817" s="2" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B815" t="s">
+    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B818" s="2" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B816" t="s">
+    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B819" s="2" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B817" t="s">
+    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B820" s="2" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B818" t="s">
+    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B821" s="2" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B819" t="s">
+    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B822" s="2" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B820" t="s">
+    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B823" s="2" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B821" t="s">
+    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B824" s="2" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B822" t="s">
+    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B825" s="2" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B823" t="s">
+    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B826" s="2" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B824" t="s">
+    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B827" s="2" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B825" t="s">
+    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B828" s="2" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B826" t="s">
+    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B829" s="2" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B827" t="s">
+    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B830" s="2" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B828" t="s">
+    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B831" s="2" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B829" t="s">
+    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B832" s="2" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B830" t="s">
+    <row r="833" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B833" s="2" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B831" t="s">
+    <row r="834" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B834" s="2" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B832" t="s">
+    <row r="835" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B835" s="2" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="833" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B833" t="s">
+    <row r="836" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B836" s="2" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="834" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B834" t="s">
+    <row r="837" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B837" s="2" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="835" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B835" t="s">
+    <row r="838" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B838" s="2" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="836" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B836" t="s">
+    <row r="839" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B839" s="2" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="837" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B837" t="s">
+    <row r="840" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B840" s="2" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="838" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B838" t="s">
+    <row r="841" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B841" s="2" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="839" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B839" t="s">
+    <row r="842" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B842" s="2" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="840" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B840" t="s">
+    <row r="843" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B843" s="2" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="841" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B841" t="s">
+    <row r="844" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B844" s="2" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="842" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B842" t="s">
+    <row r="845" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B845" s="2" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="843" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B843" t="s">
+    <row r="846" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B846" s="2" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="844" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B844" t="s">
+    <row r="847" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B847" s="2" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="845" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B845" t="s">
+    <row r="848" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B848" s="2" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="846" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B846" t="s">
+    <row r="849" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B849" s="2" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="847" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B847" t="s">
+    <row r="850" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B850" s="2" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="848" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B848" t="s">
+    <row r="851" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B851" s="2" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="849" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B849" t="s">
+    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B852" s="2" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="850" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B850" t="s">
+    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B853" s="2" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="851" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B851" t="s">
+    <row r="854" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B854" s="2" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B852" t="s">
+    <row r="855" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B855" s="2" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B853" t="s">
+    <row r="856" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B856" s="2" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="854" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B854" t="s">
+    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B857" s="2" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="855" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B855" t="s">
+    <row r="858" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B858" s="2" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="856" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B856" t="s">
+    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B859" s="2" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B857" t="s">
+    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B860" s="2" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="858" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B858" t="s">
+    <row r="861" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B861" s="2" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B859" t="s">
+    <row r="862" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B862" s="2" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B860" t="s">
+    <row r="863" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B863" s="2" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="861" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B861" t="s">
+    <row r="864" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B864" s="2" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="862" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B862" t="s">
+    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B865" s="2" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="863" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B863" t="s">
+    <row r="866" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B866" s="2" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="864" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B864" t="s">
+    <row r="867" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B867" s="2" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B865" t="s">
+    <row r="868" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B868" s="2" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="866" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B866" t="s">
+    <row r="869" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B869" s="2" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="867" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B867" t="s">
+    <row r="870" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B870" s="2" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="868" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B868" t="s">
+    <row r="871" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B871" s="2" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="869" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B869" t="s">
+    <row r="872" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B872" s="2" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="870" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B870" t="s">
+    <row r="873" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B873" s="2" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="871" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B871" t="s">
+    <row r="874" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B874" s="2" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="872" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B872" t="s">
+    <row r="875" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B875" s="2" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="873" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B873" t="s">
+    <row r="876" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B876" s="2" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="874" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B874" t="s">
+    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B877" s="2" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="875" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B875" t="s">
+    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B878" s="2" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="876" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B876" t="s">
+    <row r="879" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B879" s="2" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B877" t="s">
+    <row r="880" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B880" s="2" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B878" t="s">
+    <row r="881" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B881" s="2" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="879" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B879" t="s">
+    <row r="882" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B882" s="2" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="880" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B880" t="s">
+    <row r="883" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B883" s="2" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="881" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B881" t="s">
+    <row r="884" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B884" s="2" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="882" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B882" t="s">
+    <row r="885" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B885" s="2" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="883" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B883" t="s">
+    <row r="886" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B886" s="2" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="884" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B884" t="s">
+    <row r="887" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B887" s="2" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="885" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B885" t="s">
+    <row r="888" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B888" s="2" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="886" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B886" t="s">
+    <row r="889" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B889" s="2" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="887" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B887" t="s">
+    <row r="890" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B890" s="2" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="888" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B888" t="s">
+    <row r="891" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B891" s="2" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="889" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B889" t="s">
+    <row r="892" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B892" s="2" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="890" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B890" t="s">
+    <row r="893" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B893" s="2" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="891" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B891" t="s">
+    <row r="894" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B894" s="2" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="892" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B892" t="s">
+    <row r="895" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B895" s="2" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="893" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B893" t="s">
+    <row r="896" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B896" s="2" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="894" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B894" t="s">
+    <row r="897" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B897" s="2" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="895" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B895" t="s">
+    <row r="898" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B898" s="2" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="896" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B896" t="s">
+    <row r="899" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B899" s="2" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="897" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B897" t="s">
+    <row r="900" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B900" s="2" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="898" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B898" t="s">
+    <row r="901" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B901" s="2" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="899" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B899" t="s">
+    <row r="902" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B902" s="2" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="900" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B900" t="s">
+    <row r="903" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B903" s="2" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="901" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B901" t="s">
+    <row r="904" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B904" s="2" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="902" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B902" t="s">
+    <row r="905" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B905" s="2" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="903" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B903" t="s">
+    <row r="906" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B906" s="2" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="904" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B904" t="s">
+    <row r="907" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B907" s="2" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="905" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B905" t="s">
+    <row r="908" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B908" s="2" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="906" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B906" t="s">
+    <row r="909" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B909" s="2" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="907" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B907" t="s">
+    <row r="910" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B910" s="2" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="908" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B908" t="s">
+    <row r="911" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B911" s="2" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="909" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B909" t="s">
+    <row r="912" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B912" s="2" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="910" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B910" t="s">
+    <row r="913" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B913" s="2" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="911" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B911" t="s">
+    <row r="914" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B914" s="2" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="912" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B912" t="s">
+    <row r="915" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B915" s="2" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="913" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B913" t="s">
+    <row r="916" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B916" s="2" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="914" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B914" t="s">
+    <row r="917" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B917" s="2" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="915" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B915" t="s">
+    <row r="918" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B918" s="2" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="916" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B916" t="s">
+    <row r="919" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B919" s="2" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="917" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B917" t="s">
+    <row r="920" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B920" s="2" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="918" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B918" t="s">
+    <row r="921" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B921" s="2" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="919" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B919" t="s">
+    <row r="922" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B922" s="2" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="920" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B920" t="s">
+    <row r="923" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B923" s="2" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="921" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B921" t="s">
+    <row r="924" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B924" s="2" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="922" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B922" t="s">
+    <row r="925" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B925" s="2" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="923" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B923" t="s">
+    <row r="926" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B926" s="2" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="924" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B924" t="s">
+    <row r="927" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B927" s="2" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="925" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B925" t="s">
+    <row r="928" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B928" s="2" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="926" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B926" t="s">
+    <row r="929" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B929" s="2" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="927" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B927" t="s">
+    <row r="930" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B930" s="2" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="928" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B928" t="s">
+    <row r="931" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B931" s="2" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="929" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B929" t="s">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B932" s="2" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="930" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B930" t="s">
+    <row r="933" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B933" s="2" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="931" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B931" t="s">
+    <row r="934" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B934" s="2" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B932" t="s">
+    <row r="935" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B935" s="2" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="933" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B933" t="s">
+    <row r="936" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B936" s="2" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="934" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B934" t="s">
+    <row r="937" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B937" s="2" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="935" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B935" t="s">
+    <row r="938" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B938" s="2" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="936" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B936" t="s">
+    <row r="939" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B939" s="2" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="937" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B937" t="s">
+    <row r="940" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B940" s="2" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="938" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B938" t="s">
+    <row r="941" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B941" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="939" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B939" t="s">
+    <row r="942" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B942" s="2" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="940" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B940" t="s">
+    <row r="943" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B943" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="941" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B941" t="s">
+    <row r="944" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B944" s="2" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="942" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B942" t="s">
+    <row r="945" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B945" s="2" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="943" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B943" t="s">
+    <row r="946" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B946" s="2" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="944" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B944" t="s">
+    <row r="947" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B947" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="945" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B945" t="s">
+    <row r="948" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B948" s="2" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="946" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B946" t="s">
+    <row r="949" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B949" s="2" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="947" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B947" t="s">
+    <row r="950" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B950" s="2" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="948" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B948" t="s">
+    <row r="951" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B951" s="2" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="949" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B949" t="s">
+    <row r="952" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B952" s="2" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="950" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B950" t="s">
+    <row r="953" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B953" s="2" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="951" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B951" t="s">
+    <row r="954" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B954" s="2" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="952" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B952" t="s">
+    <row r="955" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B955" s="2" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="953" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B953" t="s">
+    <row r="956" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B956" s="2" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="954" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B954" t="s">
+    <row r="957" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B957" s="2" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="955" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B955" t="s">
+    <row r="958" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B958" s="2" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="956" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B956" t="s">
+    <row r="959" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B959" s="2" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="957" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B957" t="s">
+    <row r="960" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B960" s="2" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="958" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B958" t="s">
+    <row r="961" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B961" s="2" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="959" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B959" t="s">
+    <row r="962" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B962" s="2" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="960" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B960" t="s">
+    <row r="963" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B963" s="2" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="961" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B961" t="s">
+    <row r="964" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B964" s="2" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="962" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B962" t="s">
+    <row r="965" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B965" s="2" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="963" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B963" t="s">
+    <row r="966" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B966" s="2" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="964" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B964" t="s">
+    <row r="967" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B967" s="2" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="965" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B965" t="s">
+    <row r="968" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B968" s="2" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="966" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B966" t="s">
+    <row r="969" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B969" s="2" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="967" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B967" t="s">
+    <row r="970" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B970" s="2" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="968" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B968" t="s">
+    <row r="971" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B971" s="2" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="969" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B969" t="s">
+    <row r="972" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B972" s="2" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="970" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B970" t="s">
+    <row r="973" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B973" s="2" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="971" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B971" t="s">
+    <row r="974" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B974" s="2" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="972" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B972" t="s">
+    <row r="975" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B975" s="2" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="973" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B973" t="s">
+    <row r="976" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B976" s="2" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="974" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B974" t="s">
+    <row r="977" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B977" s="2" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="975" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B975" t="s">
+    <row r="978" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B978" s="2" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="976" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B976" t="s">
+    <row r="979" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B979" s="2" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="977" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B977" t="s">
+    <row r="980" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B980" s="2" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="978" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B978" t="s">
+    <row r="981" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B981" s="2" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="979" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B979" t="s">
+    <row r="982" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B982" s="2" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="980" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B980" t="s">
+    <row r="983" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B983" s="2" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="981" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B981" t="s">
+    <row r="984" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B984" s="2" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="982" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B982" t="s">
+    <row r="985" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B985" s="2" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="983" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B983" t="s">
+    <row r="986" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B986" s="2" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="984" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B984" t="s">
+    <row r="987" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B987" s="2" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="985" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B985" t="s">
+    <row r="988" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B988" s="2" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="986" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B986" t="s">
+    <row r="989" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B989" s="2" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="987" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B987" t="s">
+    <row r="990" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B990" s="2" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="988" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B988" t="s">
+    <row r="991" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B991" s="2" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="989" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B989" t="s">
+    <row r="992" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B992" s="2" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="990" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B990" t="s">
+    <row r="993" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B993" s="2" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="991" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B991" t="s">
+    <row r="994" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B994" s="2" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="992" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B992" t="s">
+    <row r="995" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B995" s="2" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="993" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B993" t="s">
+    <row r="996" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B996" s="2" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="994" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B994" t="s">
+    <row r="997" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B997" s="2" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="995" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B995" t="s">
+    <row r="998" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B998" s="2" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="996" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B996" t="s">
+    <row r="999" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B999" s="2" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="997" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B997" t="s">
+    <row r="1000" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1000" s="2" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="998" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B998" t="s">
+    <row r="1001" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1001" s="2" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="999" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B999" t="s">
+    <row r="1002" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1002" s="2" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="1000" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1000" t="s">
+    <row r="1003" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1003" s="2" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="1001" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1001" t="s">
+    <row r="1004" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1004" s="2" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="1002" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1002" t="s">
+    <row r="1005" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1005" s="2" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="1003" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1003" t="s">
+    <row r="1006" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1006" s="2" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="1004" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1004" t="s">
+    <row r="1007" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1007" s="2" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="1005" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1005" t="s">
+    <row r="1008" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1008" s="2" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="1006" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1006" t="s">
+    <row r="1009" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1009" s="2" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="1007" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1007" t="s">
+    <row r="1010" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1010" s="2" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="1008" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1008" t="s">
+    <row r="1011" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1011" s="2" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="1009" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1009" t="s">
+    <row r="1012" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1012" s="2" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="1010" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1010" t="s">
+    <row r="1013" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1013" s="2" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="1011" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1011" t="s">
+    <row r="1014" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1014" s="2" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="1012" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1012" t="s">
+    <row r="1015" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1015" s="2" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="1013" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1013" t="s">
+    <row r="1016" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1016" s="2" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="1014" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1014" t="s">
+    <row r="1017" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1017" s="2" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="1015" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1015" t="s">
+    <row r="1018" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1018" s="2" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="1016" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1016" t="s">
+    <row r="1019" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1019" s="2" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="1017" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1017" t="s">
+    <row r="1020" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1020" s="2" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="1018" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1018" t="s">
+    <row r="1021" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1021" s="2" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="1019" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1019" t="s">
+    <row r="1022" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1022" s="2" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="1020" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1020" t="s">
+    <row r="1023" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1023" s="2" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="1021" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1021" t="s">
+    <row r="1024" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1024" s="2" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="1022" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1022" t="s">
+    <row r="1025" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1025" s="2" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="1023" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1023" t="s">
+    <row r="1026" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1026" s="2" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="1024" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1024" t="s">
+    <row r="1027" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1027" s="2" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="1025" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1025" t="s">
+    <row r="1028" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1028" s="2" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="1026" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1026" t="s">
+    <row r="1029" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1029" s="2" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="1027" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1027" t="s">
+    <row r="1030" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1030" s="2" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="1028" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1028" t="s">
+    <row r="1031" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1031" s="2" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="1029" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1029" t="s">
+    <row r="1032" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1032" s="2" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="1030" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1030" t="s">
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1033" s="2" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="1031" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1031" t="s">
+    <row r="1034" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1034" s="2" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="1032" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1032" t="s">
+    <row r="1035" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1035" s="2" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="1033" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1033" t="s">
+    <row r="1036" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1036" s="2" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="1034" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1034" t="s">
+    <row r="1037" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1037" s="2" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="1035" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1035" t="s">
+    <row r="1038" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1038" s="2" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="1036" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1036" t="s">
+    <row r="1039" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1039" s="2" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="1037" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1037" t="s">
+    <row r="1040" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1040" s="2" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="1038" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1038" t="s">
+    <row r="1041" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1041" s="2" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="1039" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1039" t="s">
+    <row r="1042" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1042" s="2" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="1040" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1040" t="s">
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1043" s="2" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="1041" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1041" t="s">
+    <row r="1044" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1044" s="2" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="1042" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1042" t="s">
+    <row r="1045" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1045" s="2" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="1043" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1043" t="s">
+    <row r="1046" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1046" s="2" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="1044" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1044" t="s">
+    <row r="1047" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1047" s="2" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="1045" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1045" t="s">
+    <row r="1048" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1048" s="2" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="1046" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1046" t="s">
+    <row r="1049" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1049" s="2" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="1047" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1047" t="s">
+    <row r="1050" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1050" s="2" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="1048" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1048" t="s">
+    <row r="1051" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1051" s="2" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="1049" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1049" t="s">
+    <row r="1052" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1052" s="2" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="1050" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1050" t="s">
+    <row r="1053" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1053" s="2" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="1051" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1051" t="s">
+    <row r="1054" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1054" s="2" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="1052" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1052" t="s">
+    <row r="1055" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1055" s="2" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="1053" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1053" t="s">
+    <row r="1056" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1056" s="2" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="1054" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1054" t="s">
+    <row r="1057" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1057" s="2" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="1055" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1055" t="s">
+    <row r="1058" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1058" s="2" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="1056" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1056" t="s">
+    <row r="1059" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1059" s="2" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="1057" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1057" t="s">
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1060" s="2" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="1058" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1058" t="s">
+    <row r="1061" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1061" s="2" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="1059" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1059" t="s">
+    <row r="1062" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1062" s="2" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="1060" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1060" t="s">
+    <row r="1063" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1063" s="2" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="1061" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1061" t="s">
+    <row r="1064" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1064" s="2" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="1062" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1062" t="s">
+    <row r="1065" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1065" s="2" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="1063" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1063" t="s">
+    <row r="1066" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1066" s="2" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="1064" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1064" t="s">
+    <row r="1067" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1067" s="2" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="1065" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1065" t="s">
+    <row r="1068" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1068" s="2" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="1066" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1066" t="s">
+    <row r="1069" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1069" s="2" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="1067" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1067" t="s">
+    <row r="1070" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1070" s="2" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="1068" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1068" t="s">
+    <row r="1071" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1071" s="2" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="1069" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1069" t="s">
+    <row r="1072" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1072" s="2" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="1070" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1070" t="s">
+    <row r="1073" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1073" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="1071" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1071" t="s">
+    <row r="1074" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1074" s="2" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="1072" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1072" t="s">
+    <row r="1075" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1075" s="2" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="1073" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1073" t="s">
+    <row r="1076" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1076" s="2" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="1074" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1074" t="s">
+    <row r="1077" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1077" s="2" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="1075" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1075" t="s">
+    <row r="1078" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1078" s="2" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="1076" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1076" t="s">
+    <row r="1079" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1079" s="2" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="1077" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1077" t="s">
+    <row r="1080" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1080" s="2" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="1078" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1078" t="s">
+    <row r="1081" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1081" s="2" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="1079" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1079" t="s">
+    <row r="1082" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1082" s="2" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="1080" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1080" t="s">
+    <row r="1083" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1083" s="2" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="1081" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1081" t="s">
+    <row r="1084" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1084" s="2" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="1082" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1082" t="s">
+    <row r="1085" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1085" s="2" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="1083" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1083" t="s">
+    <row r="1086" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1086" s="2" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="1084" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1084" t="s">
+    <row r="1087" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1087" s="2" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="1085" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1085" t="s">
+    <row r="1088" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1088" s="2" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="1086" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1086" t="s">
+    <row r="1089" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1089" s="2" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="1087" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1087" t="s">
+    <row r="1090" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1090" s="2" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="1088" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1088" t="s">
+    <row r="1091" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1091" s="2" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="1089" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1089" t="s">
+    <row r="1092" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1092" s="2" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="1090" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1090" t="s">
+    <row r="1093" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1093" s="2" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="1091" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1091" t="s">
+    <row r="1094" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1094" s="2" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="1092" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1092" t="s">
+    <row r="1095" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1095" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="1093" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1093" t="s">
+    <row r="1096" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1096" s="2" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="1094" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1094" t="s">
+    <row r="1097" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1097" s="2" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="1095" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1095" t="s">
+    <row r="1098" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1098" s="2" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1096" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1096" t="s">
+    <row r="1099" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1099" s="2" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="1097" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1097" t="s">
+    <row r="1100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1100" s="2" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="1098" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1098" t="s">
+    <row r="1101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1101" s="2" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="1099" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1099" t="s">
+    <row r="1102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1102" s="2" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="1100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1100" t="s">
+    <row r="1103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1103" s="2" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="1101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1101" t="s">
+    <row r="1104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1104" s="2" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="1102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1102" t="s">
+    <row r="1105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1105" s="2" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="1103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1103" t="s">
+    <row r="1106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1106" s="2" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="1104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1104" t="s">
+    <row r="1107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1107" s="2" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="1105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1105" t="s">
+    <row r="1108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1108" s="2" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="1106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1106" t="s">
+    <row r="1109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1109" s="2" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="1107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1107" t="s">
+    <row r="1110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1110" s="2" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="1108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1108" t="s">
+    <row r="1111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1111" s="2" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="1109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1109" t="s">
+    <row r="1112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1112" s="2" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="1110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1110" t="s">
+    <row r="1113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1113" s="2" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="1111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1111" t="s">
+    <row r="1114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1114" s="2" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="1112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1112" t="s">
+    <row r="1115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1115" s="2" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="1113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1113" t="s">
+    <row r="1116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1116" s="2" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="1114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1114" t="s">
+    <row r="1117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1117" s="2" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="1115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1115" t="s">
+    <row r="1118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1118" s="2" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="1116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1116" t="s">
+    <row r="1119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1119" s="2" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="1117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1117" t="s">
+    <row r="1120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1120" s="2" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="1118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1118" t="s">
+    <row r="1121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1121" s="2" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="1119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1119" t="s">
+    <row r="1122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1122" s="2" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="1120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1120" t="s">
+    <row r="1123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1123" s="2" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="1121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1121" t="s">
+    <row r="1124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1124" s="2" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="1122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1122" t="s">
+    <row r="1125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1125" s="2" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="1123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1123" t="s">
+    <row r="1126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1126" s="2" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="1124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1124" t="s">
+    <row r="1127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1127" s="2" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="1125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1125" t="s">
+    <row r="1128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1128" s="2" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="1126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1126" t="s">
+    <row r="1129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1129" s="2" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="1127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1127" t="s">
+    <row r="1130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1130" s="2" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="1128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1128" t="s">
+    <row r="1131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1131" s="2" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="1129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1129" t="s">
+    <row r="1132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1132" s="2" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="1130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1130" t="s">
+    <row r="1133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1133" s="2" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="1131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1131" t="s">
+    <row r="1134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1134" s="2" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="1132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1132" t="s">
+    <row r="1135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1135" s="2" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="1133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1133" t="s">
+    <row r="1136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1136" s="2" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="1134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1134" t="s">
+    <row r="1137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1137" s="2" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="1135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1135" t="s">
+    <row r="1138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1138" s="2" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="1136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1136" t="s">
+    <row r="1139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1139" s="2" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="1137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1137" t="s">
+    <row r="1140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1140" s="2" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="1138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1138" t="s">
+    <row r="1141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1141" s="2" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="1139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1139" t="s">
+    <row r="1142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1142" s="2" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="1140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1140" t="s">
+    <row r="1143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1143" s="2" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="1141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1141" t="s">
+    <row r="1144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1144" s="2" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="1142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1142" t="s">
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1145" s="2" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="1143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1143" t="s">
+    <row r="1146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1146" s="2" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="1144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1144" t="s">
+    <row r="1147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1147" s="2" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="1145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1145" t="s">
+    <row r="1148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1148" s="2" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="1146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1146" t="s">
+    <row r="1149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1149" s="2" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="1147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1147" t="s">
+    <row r="1150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1150" s="2" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -10676,8 +10875,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10687,18 +10886,18 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xll.DBSetQuery(A2,"",B1)</f>
-        <v xml:space="preserve">Env:MSSQL, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.value_x000D_
+        <v xml:space="preserve">Env:Dev, (last result:)Set OLEDB; ListObject to (bgQuery= True, ): SELECT T1.value_x000D_
 FROM ORE.dbo.TypesParties T1_x000D_
 </v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10706,28 +10905,148 @@
       <c r="A2" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1264</v>
+      <c r="B2" s="3" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1265</v>
+      <c r="B3" s="2" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1266</v>
+      <c r="B4" s="2" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>1267</v>
+      <c r="B5" s="2" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>1268</v>
+      <c r="B6" s="2" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>1295</v>
       </c>
     </row>
   </sheetData>
@@ -10740,10 +11059,10 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <root xmlns="DBModifDef">
-  <DBMapperTypesCalendar>
+  <DBMapper Name="TypesCalendar">
     <execOnSave>True</execOnSave>
     <askBeforeExecute>True</askBeforeExecute>
-    <env/>
+    <env>0</env>
     <database>ORE</database>
     <tableName>TypesCalendar</tableName>
     <primKeysStr>1</primKeysStr>
@@ -10752,11 +11071,12 @@
     <ignoreColumns/>
     <CUDFlags>True</CUDFlags>
     <IgnoreDataErrors>False</IgnoreDataErrors>
-  </DBMapperTypesCalendar>
-  <DBMapperTypesIndexName>
+    <confirmText/>
+  </DBMapper>
+  <DBMapper Name="TypesIndexName">
     <execOnSave>True</execOnSave>
     <askBeforeExecute>True</askBeforeExecute>
-    <env/>
+    <env>0</env>
     <database>ORE</database>
     <tableName>TypesIndexName</tableName>
     <primKeysStr>1</primKeysStr>
@@ -10765,11 +11085,12 @@
     <ignoreColumns/>
     <CUDFlags>True</CUDFlags>
     <IgnoreDataErrors>False</IgnoreDataErrors>
-  </DBMapperTypesIndexName>
-  <DBMapperTypesParties>
+    <confirmText/>
+  </DBMapper>
+  <DBMapper Name="TypesParties">
     <execOnSave>True</execOnSave>
     <askBeforeExecute>True</askBeforeExecute>
-    <env/>
+    <env>0</env>
     <database>ORE</database>
     <tableName>TypesParties</tableName>
     <primKeysStr>1</primKeysStr>
@@ -10778,12 +11099,13 @@
     <ignoreColumns/>
     <CUDFlags>True</CUDFlags>
     <IgnoreDataErrors>False</IgnoreDataErrors>
-  </DBMapperTypesParties>
+    <confirmText/>
+  </DBMapper>
 </root>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC8670EB-CB31-479D-ABD0-6A009A1B98ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4262082-B419-4941-915D-59B4DEF0E89E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="DBModifDef"/>
   </ds:schemaRefs>
